--- a/P4TSSOP8_DEFROST.xlsx
+++ b/P4TSSOP8_DEFROST.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/kanokwan_rattanaka_nxp_com/Documents/Desktop/Project/Checklist/THTAP054/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/kanokwan_rattanaka_nxp_com/Documents/Desktop/Project/Checklist/2024-8-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DB114E441178AC67DF48216D6C190693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E02B27-14BF-486F-9111-01D4E5E79316}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4DB114E441178AC67DF48216D6C190693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC6CC8A-CA50-4C43-9C36-58E52F34EA47}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="P4TSSOP8_DEFROST" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4760,6 +4760,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5028,7 +5032,7 @@
   <dimension ref="A1:H741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
